--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237AEBE-3258-4049-A911-01221A1E6910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D04786-C325-4071-BAC4-021BE5EC0DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Application Name:</t>
   </si>
@@ -71,34 +71,88 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;TECHNICAL_SIZING</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=CISQ-Security,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=CISQ-Security,LBL=violations</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TECHNO_LOC</t>
-  </si>
-  <si>
     <t>CISQ Security Compliance details</t>
   </si>
   <si>
     <t>Application characteristics</t>
   </si>
   <si>
-    <t>CAST findings for CISQ Security</t>
-  </si>
-  <si>
-    <t>CAST findings details for CISQ Security</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CISQ-Security,LBL=violations,MORE=true</t>
-  </si>
-  <si>
     <t>Findings summary for CAST under CISQ Security Standards</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNO_LOC;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNICAL_SIZING;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Quality Standard</t>
+  </si>
+  <si>
+    <t>Total Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Added Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Removed Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CISQ-Security,MORE=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=CISQ-Security,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remediation</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Violation Status</t>
+  </si>
+  <si>
+    <t>Associated Value</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>Start Line</t>
+  </si>
+  <si>
+    <t>End Line</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=CISQ-Security,COUNT=-1,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -305,7 +359,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -361,6 +415,12 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -375,6 +435,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -419,7 +483,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>203489</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -752,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +828,7 @@
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -781,12 +845,12 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -795,10 +859,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
@@ -811,10 +875,10 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
@@ -831,28 +895,63 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D9" s="28"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -868,28 +967,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.88671875" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -899,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -907,18 +1034,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D04786-C325-4071-BAC4-021BE5EC0DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D649D3C-B9D7-43D7-9F2F-A6F08364F28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,7 +359,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -421,24 +421,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,7 +813,7 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,8 +839,8 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
@@ -859,13 +853,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
         <v>4</v>
@@ -875,13 +869,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -908,7 +902,7 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
@@ -922,7 +916,7 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="25"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
@@ -949,15 +943,13 @@
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1011,9 +1003,9 @@
       <c r="A2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D649D3C-B9D7-43D7-9F2F-A6F08364F28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EAD447-F5D7-4386-BD78-00125E7DC1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Rules</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CISQ-Security,MORE=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=CISQ-Security,DESC=true,HEADER=NO</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=CISQ-Security,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CISQ-Security,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -813,26 +813,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -884,10 +884,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -898,13 +898,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
@@ -912,7 +912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -920,12 +920,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
@@ -939,9 +939,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -965,18 +965,18 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
@@ -990,18 +990,18 @@
         <v>22</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1024,47 +1024,47 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/CISQ Security Full Detailed Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EAD447-F5D7-4386-BD78-00125E7DC1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0759B6-3D61-4A76-8221-B110E8212592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>CISQ Security Compliance details</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=CISQ-Security,HEADER=NO</t>
+  </si>
+  <si>
+    <t>CISQ Technical Debt:</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT;ID=CISQ</t>
   </si>
 </sst>
 </file>
@@ -476,8 +476,8 @@
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203489</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1277216</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -813,7 +813,7 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
@@ -834,17 +834,17 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -857,15 +857,15 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -873,15 +873,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -889,32 +889,32 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="25"/>
       <c r="N9" s="17"/>
@@ -922,26 +922,26 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -978,30 +978,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1038,33 +1038,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
